--- a/Result/check1.xlsx
+++ b/Result/check1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,80 +501,90 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>recommend2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>量增</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
@@ -643,85 +653,95 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>140.5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>鈺齊-KY</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>68.36</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>18.91</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>31.29</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28239</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>鞋99.51%、其他0.49% (2023年)</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>鈺齊-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>557579852.0</t>
         </is>
@@ -790,85 +810,95 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-01-14 00:00:00</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>58.6</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>5.97</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>北基</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>油電燃氣業</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>15.63</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>7.95</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>40.98</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>29.34</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>21642</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>北基-油電燃氣業-上櫃</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>290355.0</t>
         </is>
@@ -942,80 +972,90 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>7.52</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>尚茂</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>1.93</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>487</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>尚茂-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>247.0</t>
         </is>
@@ -1084,85 +1124,95 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-01-07 00:00:00</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22.0</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>4.76</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>保銳</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>1341</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>保銳-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8537.0</t>
         </is>
@@ -1236,80 +1286,90 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>17.75</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>6.93</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>志旭</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>8.22</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>58.75</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>367</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>美妝產品84.98%、儲存媒體12.08%、多媒體2.84%、家電生活週邊0.10% (2023年)</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>志旭-電子通路業-上櫃</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
@@ -1383,80 +1443,90 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>743.0</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>5.99</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>LINEPAY</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>數位雲端</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>701</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>98.64</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>26.58</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>72.35</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>36.07</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>50524</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>手續費80.65%、金融推廣合作11.55%、其他4.12%、系統管理服務3.69% (2023年)</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>LINEPAY-數位雲端-上市</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>643370547.0</t>
         </is>
@@ -1530,80 +1600,90 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>97.7</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>6.2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>富威電力</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>綠能環保</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>15.86</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>6.54</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>82.8</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>28.47</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>6888</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>電力68.45%、工程25.68%、服務收入5.87% (2023年)</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>富威電力-綠能環保-上市</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>62652605.0</t>
         </is>
@@ -1672,85 +1752,95 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>495.0</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>來億-KY</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>480</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>92.54</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>37.29</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>89.51</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>123453</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>運動鞋73.13%、休閒鞋26.85%、其他0.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>來億-KY-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>432573012.0</t>
         </is>
@@ -1819,85 +1909,95 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>68.5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>鑫傳</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>文化創意業</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27.09</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>6.48</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>16.0</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>52.03</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>1932</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>廣告46.94%、商品銷售28.12%、節目製作24.68%、其他0.26% (2023年)</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>鑫傳-文化創意業-上櫃</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>3778.0</t>
         </is>
@@ -1971,80 +2071,90 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>89.6</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>台灣虎航</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>14.93</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>9.85</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>13.6</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>20.94</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>41174</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>客運97.15%、其他營業收入2.43%、貨物運輸0.42% (2023年)</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>台灣虎航-航運業-上市</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>1183036378.0</t>
         </is>
@@ -2118,80 +2228,90 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>130.0</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>科定</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>6.92</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>29.37</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>8.73</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>27.66</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>37.55</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>10684</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>塗裝木皮板50.47%、環保批批板43.63%、科定系統櫃2.33%、KD木地板2.12%、其他1.44% (2023年)</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>科定-其他-上市</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>552127.0</t>
         </is>
@@ -2260,85 +2380,95 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>260.0</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>朋億*</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>58.71</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>36.9</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>16.34</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>59.92</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>19794</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>朋億*-其他電子業-上櫃</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2271312.0</t>
         </is>
@@ -2407,85 +2537,95 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-12-26 00:00:00</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>163.0</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>醫揚</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>7.35</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>34.53</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>6295</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>醫揚-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>15972.0</t>
         </is>
@@ -2554,85 +2694,95 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>154.0</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>宏觀</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>47.34</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>64.71</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>4776</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>射頻晶片91.93%、委託設計服務8.07% (2023年)</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>宏觀-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>212848.0</t>
         </is>
@@ -2701,85 +2851,95 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025-01-09 00:00:00</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>59.5</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>興能高</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>15.99</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>5144</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>電池組93.08%、電池芯6.92% (2023年)</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>興能高-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>15467217058.0</t>
         </is>
@@ -2848,85 +3008,95 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>224.0</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>55.07</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>17.46</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>44.18</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>16863</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備70.61%、半導體自動化設備25.54%、液晶面板自動化設備3.85% (2023年)</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>2795613092.0</t>
         </is>
@@ -2995,85 +3165,95 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推探底有撐</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>78.0</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>良維</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>39.19</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>13.57</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>17.22</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>12382</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>良維-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>315954.0</t>
         </is>
@@ -3142,85 +3322,95 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025-01-13 00:00:00</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>56.8</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>5.58</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>雷科</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>24.11</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>28.4</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>4526</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>雷科-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>75308.0</t>
         </is>
@@ -3294,80 +3484,90 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>66.9</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>3.4</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>精成科</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>46.46</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>12.43</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>10.37</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>31731</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>印刷電路板(PCB)70.10%、EMS29.90% (2023年)</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>精成科-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>1433803704.0</t>
         </is>
@@ -3441,80 +3641,90 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>34.9</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>萬泰科</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>18.47</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>13.76</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>16.78</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>5712</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>網路線34.42%、電子線26.19%、其他18.13%、汽車及機車線10.28%、灌溉線6.89%、電腦線及高溫線2.27%、電源線1.82% (2023年)</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>萬泰科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>75426.0</t>
         </is>
@@ -3583,85 +3793,95 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>43.6</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>立敦</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>2.4</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>25.23</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>7.54</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>15.97</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>6565</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>化成鋁箔71.92%、電蝕鋁箔27.77%、鋁箔加工0.31% (2023年)</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>立敦-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>1206926.0</t>
         </is>
@@ -3730,85 +3950,95 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-12-31 00:00:00</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>亞翔</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>57.00</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>70.44</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>14.09</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>58251</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>亞翔-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>3839446142.0</t>
         </is>
@@ -3877,85 +4107,95 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>175.0</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>創惟</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>20.29</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>9.72</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>81.4</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>15869</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>積體電路(IC)晶片99.63%、其他0.37% (2023年)</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>創惟-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>-233231.0</t>
         </is>
@@ -4024,85 +4264,95 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>242.5</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>8.26</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>22.52</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>6.71</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>63.65</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>34154</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>22500425.0</t>
         </is>
@@ -4176,80 +4426,90 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>147.5</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>眾達-KY</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>49.33</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>148.99</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>11828</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>加強小型化可插拔光收發器(SF56.62%、四通道小型化可插拔光收發器39.59%、光器件收發組件(OSA)3.28%、小型化可插拔光收發器(SFP)0.51% (2023年)</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>眾達-KY-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>7499575323.0</t>
         </is>
@@ -4318,85 +4578,95 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>事欣科</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>19.95</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>8.96</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>3246</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>事欣科-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>183473960.0</t>
         </is>
@@ -4465,85 +4735,95 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>37.9</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>聯光通</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>9.78</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>39.48</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>3993</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>系統工程及服務61.79%、光纖電纜及配合材料34.74%、其他3.22%、數據產品傳輸設備0.25% (2023年)</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>聯光通-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>962748.0</t>
         </is>
@@ -4612,85 +4892,95 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>66.7</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>華廣</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>30.16</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>32.55</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>4071</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>華廣-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>35769724.0</t>
         </is>
@@ -4759,85 +5049,95 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025-01-15 00:00:00</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>34.55</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>6.31</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>聿新科</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>16.42</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>18.38</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>99.19</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>1829</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>聿新科-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>20778.0</t>
         </is>
@@ -4906,85 +5206,95 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025-01-17 00:00:00</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>13.1</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>連展投控</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>6.93</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>3763</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>其他38.97%、電腦產品32.74%、通訊產品28.29% (2023年)</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>連展投控-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>197220.0</t>
         </is>
@@ -5058,80 +5368,90 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>637.0</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>2.74</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>貿聯-KY</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>1.39</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>181.28</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>77.75</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>34.89</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>116819</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>工業用38.88%、車用25.41%、資訊科技與數據傳播20.22%、電器用14.59%、其他0.89% (2023年)</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>貿聯-KY-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>2392127693.0</t>
         </is>
@@ -5205,80 +5525,90 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>45.5</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>6.06</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>三一東林</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>6.67</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>59.87</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>1605</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>LED Driver45.01%、成車43.58%、其他11.40% (2023年)</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>三一東林-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>57008.0</t>
         </is>
@@ -5347,85 +5677,95 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2025-01-21 00:00:00</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>62.7</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>宏致</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>42.21</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>19.75</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>82.5</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>8896</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>2433411209.0</t>
         </is>
@@ -5499,80 +5839,90 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>23.35</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>亞帝歐</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>25.67</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>97.29</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>96.61</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>1391</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>照明燈具49.65%、連接線48.51%、塑膠射出1.25%、能源電力0.60% (2023年)</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>亞帝歐-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>1220.0</t>
         </is>
@@ -5641,85 +5991,95 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025-01-03 00:00:00</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>453.0</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>昇達科</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>40.78</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>10.02</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>67.31</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>28930</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>微波及毫米波49.15%、射頻產品32.07%、通訊網路工程服務18.79% (2023年)</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>昇達科-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>7322770.0</t>
         </is>
@@ -5788,85 +6148,95 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2025-01-22 00:00:00</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>--ShowTime</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>22.65</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>5.84</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>杭特</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>15.78</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>96.61</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>817</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>網路攝影機100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>杭特-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AE37" t="inlineStr">
         <is>
           <t>15143.0</t>
         </is>
@@ -5935,85 +6305,95 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2025-01-08 00:00:00</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>35.8</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>太普高</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>13.66</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>13.11</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>183.9</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>3308</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>太普高-其他-上櫃</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AE38" t="inlineStr">
         <is>
           <t>12153.0</t>
         </is>
@@ -6082,85 +6462,95 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-12-19 00:00:00</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>68.9</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>欣銓</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>37.80</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>14.95</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>90.71</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>33773</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>2515998.0</t>
         </is>
@@ -6234,80 +6624,90 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>204.5</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>7.92</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>順達</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t>2.7</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>68.32</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>23.59</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>11.13</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>27.14</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>31186</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AE40" t="inlineStr">
         <is>
           <t>6053876.0</t>
         </is>
@@ -6376,85 +6776,95 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-12-23 00:00:00</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>169.5</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>波若威</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>33.20</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>5.67</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>37.75</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>112.76</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>13652</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>光纖連接產品(OIN Product)49.92%、光能量分合產品22.24%、光波長分合產品21.23%、光能量放大產品6.33%、其他0.28% (2023年)</t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>波若威-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AE41" t="inlineStr">
         <is>
           <t>7920315.0</t>
         </is>
@@ -6528,80 +6938,90 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>28.9</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>隆銘綠能</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>10.10</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>34.56</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>機電系統整合工程70.22%、營建工程29.61%、商品銷售0.17% (2023年)</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>隆銘綠能-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>3200224.0</t>
         </is>
@@ -6670,85 +7090,95 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-12-16 00:00:00</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>119.5</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>神基</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>36.80</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>14.85</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>17.29</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>68.69</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>73517</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>神基-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AE43" t="inlineStr">
         <is>
           <t>765320369.0</t>
         </is>
@@ -6817,85 +7247,95 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>30.8</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>宏太-KY</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>居家生活</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>10.57</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>1.6</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>95.04</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>1603</t>
         </is>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>嬰幼兒產品100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>宏太-KY-居家生活-上櫃</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AE44" t="inlineStr">
         <is>
           <t>246.0</t>
         </is>
@@ -6964,85 +7404,95 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-01-20 00:00:00</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>59.2</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>宏達電</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>26.37</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AA45" t="inlineStr">
         <is>
           <t>40.14</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>49289</t>
         </is>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>虛擬實境及5G,智慧型手機和100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>宏達電-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AE45" t="inlineStr">
         <is>
           <t>16618070150.0</t>
         </is>
@@ -7116,80 +7566,90 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>80.0</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>5.54</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>冠西電</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>10.90</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>2.6</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>60.87</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>13717</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>裝飾燈53.97%、光電元件39.45%、節淨蒸汽4.52%、貿易及通路2.06% (2023年)</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>冠西電-光電業-上市</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AE46" t="inlineStr">
         <is>
           <t>377767767.0</t>
         </is>
@@ -7263,80 +7723,90 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>437.5</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>台達電</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>84.15</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>43.2</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>30.7</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>31.19</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>1136425</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>電源及零組件63.68%、基礎設施23.28%、自動化業務13.02%、其他0.02% (2023年)</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AD47" t="inlineStr">
         <is>
           <t>台達電-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AE47" t="inlineStr">
         <is>
           <t>3564327251.0</t>
         </is>
@@ -7410,80 +7880,90 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>129.5</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>1.57</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>IKKA-KY</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>汽車工業</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>2.46</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>61.48</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>30.4</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>20.56</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>141.64</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>4075</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>汽車類64.38%、衛浴家電類16.80%、其他15.15%、辦公設備3.67% (2023年)</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>IKKA-KY-汽車工業-上市</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AE48" t="inlineStr">
         <is>
           <t>680293811.0</t>
         </is>
@@ -7557,80 +8037,90 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>189.5</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>喬山</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>34.12</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>39.81</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>44.8</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>57493</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>喬山-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AE49" t="inlineStr">
         <is>
           <t>-4986928.0</t>
         </is>
@@ -7699,85 +8189,95 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-12-30 00:00:00</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>31.45</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>岱宇</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>26.97</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>10.03</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="AA50" t="inlineStr">
         <is>
           <t>27.8</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>5257</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AD50" t="inlineStr">
         <is>
           <t>岱宇-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AE50" t="inlineStr">
         <is>
           <t>44836511.0</t>
         </is>

--- a/Result/check1.xlsx
+++ b/Result/check1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,32 +593,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9802</t>
+          <t>9935</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>140.5</t>
+          <t>31.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>40.76</t>
+          <t>23.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -628,22 +628,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>264</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>140.5</t>
+          <t>31.85</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>鈺齊-KY</t>
+          <t>慶豐富</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -703,69 +703,69 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>68.36</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>31.29</t>
+          <t>15.72</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>28239</t>
+          <t>5255</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>鞋99.51%、其他0.49% (2023年)</t>
+          <t>窗簾73.28%、家居裝飾產品24.15%、塑膠製品2.57% (2023年)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>鈺齊-KY-運動休閒-上市</t>
+          <t>慶豐富-居家生活-上市</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>557579852.0</t>
+          <t>70978752.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>9919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,67 +775,67 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31.23</t>
+          <t>22.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>138</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -845,251 +845,251 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>北基</t>
+          <t>康那香</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>40.98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>21642</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>無鉛汽油52.63%、高級柴油20.42%、無鉛汽油10.87%、無鉛汽油5.77%、其他5.26%、洗車1.53%、儲能產品1.26%、客房及餐飲0.99%、電動巴士0.66%、副油品0.54%、車輛檢查0.08% (2023年)</t>
+          <t>衛生棉52.32%、濕巾21.93%、不織布及其他15.37%、紙尿褲10.37% (2023年)</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>北基-油電燃氣業-上櫃</t>
+          <t>康那香-其他-上市</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>290355.0</t>
+          <t>193420111.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>8937</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>47</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>合騏</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>尚茂</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>531.25</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>183.9</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>15694</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
+          <t>多功能休閒車58.13%、其他車種及零件24.10%、摩托車16.12%、其他投資1.65% (2023年)</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>尚茂-電子零組件業-上櫃</t>
+          <t>合騏-其他-上櫃</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>247.0</t>
+          <t>319041.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8093</t>
+          <t>8482</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1124,32 +1124,32 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1159,119 +1159,119 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>保銳</t>
+          <t>商億-KY</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>居家生活</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>32.36</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33.42</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>10701</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>電源供應器48.86%、其他44.45%、電腦機殼6.69% (2023年)</t>
+          <t>室內家具90.84%、其他9.16% (2023年)</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>保銳-電子零組件業-上櫃</t>
+          <t>商億-KY-居家生活-上市</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>8537.0</t>
+          <t>-8068462.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8067</t>
+          <t>8415</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>117.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>895</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐</t>
+          <t>--遠期量推近期量推</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>志旭</t>
+          <t>大國鋼</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1331,79 +1331,79 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>24.22</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>58.75</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>35226</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>美妝產品84.98%、儲存媒體12.08%、多媒體2.84%、家電生活週邊0.10% (2023年)</t>
+          <t>螺絲及螺帽86.40%、其他10.56%、鋁製品3.04% (2023年)</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>志旭-電子通路業-上櫃</t>
+          <t>大國鋼-鋼鐵工業-上櫃</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>128700.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7722</t>
+          <t>8390</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>743.0</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>33.31</t>
+          <t>37.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1413,311 +1413,311 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>743.0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>LINEPAY</t>
+          <t>金益鼎</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>98.64</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>72.35</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>65.5</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>50524</t>
+          <t>5902</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>手續費80.65%、金融推廣合作11.55%、其他4.12%、系統管理服務3.69% (2023年)</t>
+          <t>工業金屬48.26%、貴金屬材料33.90%、其他17.84% (2023年)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>LINEPAY-數位雲端-上市</t>
+          <t>金益鼎-綠能環保-上櫃</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>643370547.0</t>
+          <t>265436.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6994</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>34.73</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-0.99</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>尚茂</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>97.7</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>富威電力</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>綠能環保</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>15.86</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>82.8</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>28.47</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>487</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>電力68.45%、工程25.68%、服務收入5.87% (2023年)</t>
+          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>富威電力-綠能環保-上市</t>
+          <t>尚茂-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>62652605.0</t>
+          <t>393.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>7722</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>495.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>35.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1727,37 +1727,37 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>495.0</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1787,12 +1787,12 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>來億-KY</t>
+          <t>LINEPAY</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>運動休閒</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1802,79 +1802,79 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>701</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>98.64</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>26.58</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>89.51</t>
+          <t>72.35</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>36.07</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>123453</t>
+          <t>50524</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>運動鞋73.13%、休閒鞋26.85%、其他0.03% (2023年)</t>
+          <t>手續費80.65%、金融推廣合作11.55%、其他4.12%、系統管理服務3.69% (2023年)</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>來億-KY-運動休閒-上市</t>
+          <t>LINEPAY-數位雲端-上市</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>432573012.0</t>
+          <t>1500865648.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6856</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>68.5</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>44.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1884,32 +1884,32 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>68.5</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1944,94 +1944,94 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>鑫傳</t>
+          <t>富威電力</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>92</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>27.09</t>
+          <t>15.86</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>52.03</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>6888</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>廣告46.94%、商品銷售28.12%、節目製作24.68%、其他0.26% (2023年)</t>
+          <t>電力68.45%、工程25.68%、服務收入5.87% (2023年)</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>鑫傳-文化創意業-上櫃</t>
+          <t>富威電力-綠能環保-上市</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>3778.0</t>
+          <t>264136027.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6757</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.6</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>63.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2041,22 +2041,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--遠期量推近期量推量大探底有撐</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>89.6</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>台灣虎航</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2121,99 +2121,99 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>14.93</t>
+          <t>21.57</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>20.94</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>41174</t>
+          <t>82854</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>客運97.15%、其他營業收入2.43%、貨物運輸0.42% (2023年)</t>
+          <t>邏輯產品62.00%、記憶體(仟片)30.94%、記憶體(千顆)7.06% (2023年)</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>台灣虎航-航運業-上市</t>
+          <t>力積電-半導體業-上市</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1183036378.0</t>
+          <t>5861763382.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6752</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>18.37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2228,27 +2228,27 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2258,94 +2258,94 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>科定</t>
+          <t>叡揚</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>32.38</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>20.47</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10684</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>塗裝木皮板50.47%、環保批批板43.63%、科定系統櫃2.33%、KD木地板2.12%、其他1.44% (2023年)</t>
+          <t>技術服務91.81%、商品銷售8.19% (2023年)</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>科定-其他-上市</t>
+          <t>叡揚-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>552127.0</t>
+          <t>140405.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>6720</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>260.0</t>
+          <t>169.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2355,37 +2355,37 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>231.0</t>
+          <t>-75.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>260.0</t>
+          <t>169.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>朋億*</t>
+          <t>久昌</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2430,69 +2430,69 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>184.5</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>58.71</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>29.21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>19794</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>高科技產業製程供應系統設備62.20%、高科技產業製程供應系統設備34.63%、其他3.17% (2023年)</t>
+          <t>Hall IC(IC)87.83%、Hall IC(晶圓)8.22%、PowerIC(IC)1.88%、Mosfet IC1.83%、Power IC(晶圓)0.16%、馬達驅動IC0.08% (2023年)</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>朋億*-其他電子業-上櫃</t>
+          <t>久昌-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2271312.0</t>
+          <t>-276854.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6569</t>
+          <t>6657</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>40.54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2512,57 +2512,57 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大探底有撐</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2024-12-26</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推探底有撐</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>醫揚</t>
+          <t>華安</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2582,84 +2582,84 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>38.25</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>32.55</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>4637</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>醫療用電腦及其配件98.54%、其他1.46% (2023年)</t>
+          <t>試劑銷售53.27%、勞務46.73% (2023年)</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>醫揚-生技醫療業-上櫃</t>
+          <t>華安-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>15972.0</t>
+          <t>65168662.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6568</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56.68</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2669,57 +2669,57 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>137.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大探底有撐</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推ShowTime</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2729,119 +2729,119 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>宏觀</t>
+          <t>鼎基</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>47.34</t>
+          <t>53.45</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>64.71</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>4776</t>
+          <t>11074</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>射頻晶片91.93%、委託設計服務8.07% (2023年)</t>
+          <t>薄膜92.17%、密封件4.47%、管帶3.23%、其他0.14% (2023年)</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>宏觀-半導體業-上櫃</t>
+          <t>鼎基-其他-上市</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>212848.0</t>
+          <t>136763475.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>78.82</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2886,94 +2886,94 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>興能高</t>
+          <t>訊達電腦</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.95</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>電池組93.08%、電池芯6.92% (2023年)</t>
+          <t>個人電腦與工作站22.75%、伺服器20.14%、零件, 耗材, 技術服務及其他19.66%、軟體產品12.49%、網路產品9.67%、伺服器週邊選件9.64%、個人電腦及工作站周邊選件3.25%、顯示器2.10%、印表機0.30% (2023年)</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>興能高-其他電子業-上市</t>
+          <t>訊達電腦-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>15467217058.0</t>
+          <t>164215.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6438</t>
+          <t>6112</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>224.0</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32.52</t>
+          <t>79.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3008,32 +3008,32 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>224.0</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3043,12 +3043,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>迅得</t>
+          <t>邁達特</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3058,139 +3058,139 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>55.07</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>22.8</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>44.18</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>24.59</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16863</t>
+          <t>6852</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>印刷電路板自動化設備70.61%、半導體自動化設備25.54%、液晶面板自動化設備3.85% (2023年)</t>
+          <t>數據運算及應用60.03%、資通訊基礎架構22.11%、雲端應用,軟體及服務11.84%、數位化應用整合4.43%、其他產品1.60% (2023年)</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>迅得-其他電子業-上市</t>
+          <t>邁達特-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2795613092.0</t>
+          <t>994655175.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6290</t>
+          <t>5481</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>32.85</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>20.43</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推探底有撐</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>32.85</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>良維</t>
+          <t>新華</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3215,79 +3215,79 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>39.19</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>183.9</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12382</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
+          <t>教材38.28%、權利金收入27.87%、租賃23.49%、教育服務5.31%、其他5.05% (2023年)</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>良維-電子零組件業-上櫃</t>
+          <t>新華-其他-上櫃</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>315954.0</t>
+          <t>119068.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6207</t>
+          <t>5474</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>192.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>27.18</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3297,42 +3297,42 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>192.0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>雷科</t>
+          <t>聰泰</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3372,296 +3372,296 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>46.91</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>27.14</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>7385</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>SMT與雷射設備60.68%、捲裝材料38.32%、其他1.00% (2023年)</t>
+          <t>電腦多媒體周邊視訊轉換器及99.84%、其他電腦週邊設備0.16% (2023年)</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>雷科-電子零組件業-上櫃</t>
+          <t>聰泰-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>75308.0</t>
+          <t>1229491.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>5314</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>822.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>42.86</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>-48.0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>822.0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>66.9</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>精成科</t>
+          <t>世紀</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>46.46</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>73.11</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>31731</t>
+          <t>11069</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)70.10%、EMS29.90% (2023年)</t>
+          <t>裝修工程75.24%、餐飲服務13.67%、系統模組8.10%、建材3.00% (2023年)</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>精成科-電子零組件業-上市</t>
+          <t>世紀-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1433803704.0</t>
+          <t>1257076.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>4760</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>萬泰科</t>
+          <t>勤凱科技</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3686,139 +3686,139 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>29.11</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>112.76</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>5712</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>網路線34.42%、電子線26.19%、其他18.13%、汽車及機車線10.28%、灌溉線6.89%、電腦線及高溫線2.27%、電源線1.82% (2023年)</t>
+          <t>導電漿料99.65%、其他0.35% (2023年)</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>萬泰科-通信網路業-上櫃</t>
+          <t>勤凱科技-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>75426.0</t>
+          <t>52269.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6175</t>
+          <t>4162</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>186.0</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1203</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推ShowTime</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>43.6</t>
-        </is>
-      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>立敦</t>
+          <t>智擎</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -3843,104 +3843,104 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>25.23</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15.97</t>
+          <t>37.83</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>6565</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>化成鋁箔71.92%、電蝕鋁箔27.77%、鋁箔加工0.31% (2023年)</t>
+          <t>權利金收入63.72%、商品銷售36.28% (2023年)</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>立敦-電子零組件業-上櫃</t>
+          <t>智擎-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>1206926.0</t>
+          <t>279720.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6139</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>250.0</t>
+          <t>15.6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3950,12 +3950,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3965,17 +3965,17 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>250.0</t>
+          <t>15.6</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3985,94 +3985,94 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>亞翔</t>
+          <t>樂威科-KY</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>70.44</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14.09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>183.9</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>58251</t>
+          <t>438</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>其他72.12%、無塵室工程20.22%、機電工程4.32%、製程管路工程3.35% (2023年)</t>
+          <t>精品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>亞翔-其他電子業-上市</t>
+          <t>樂威科-KY-其他-上櫃</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>3839446142.0</t>
+          <t>1095.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>175.0</t>
+          <t>185.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>20.47</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4082,154 +4082,154 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>175.0</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>創惟</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>69.04</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>55.21</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15869</t>
+          <t>39554</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>積體電路(IC)晶片99.63%、其他0.37% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>創惟-半導體業-上櫃</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-233231.0</t>
+          <t>371657200.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>242.5</t>
+          <t>132.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4239,22 +4239,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4264,32 +4264,32 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>242.5</t>
+          <t>132.5</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -4299,94 +4299,94 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>華星光</t>
+          <t>晶睿</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>38.72</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>63.65</t>
+          <t>53.33</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>112.76</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>34154</t>
+          <t>11081</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
+          <t>網路攝影機85.22%、其他8.39%、網路影音錄影機6.39% (2023年)</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>華星光-通信網路業-上櫃</t>
+          <t>晶睿-光電業-上市</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>22500425.0</t>
+          <t>-235046914.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>147.5</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>62.76</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4396,22 +4396,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>145</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4426,27 +4426,27 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>147.5</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -4456,119 +4456,119 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>眾達-KY</t>
+          <t>熱映</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>49.33</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>148.99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>40.14</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11828</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>加強小型化可插拔光收發器(SF56.62%、四通道小型化可插拔光收發器39.59%、光器件收發組件(OSA)3.28%、小型化可插拔光收發器(SFP)0.51% (2023年)</t>
+          <t>紅外線精密溫度儀58.37%、體溫測量產品(耳溫槍,額溫槍31.31%、紅外線精密氣體監測儀10.31%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>眾達-KY-通信網路業-上市</t>
+          <t>熱映-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>7499575323.0</t>
+          <t>104468.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>17.43</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4578,17 +4578,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推近期量推探底有撐</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4598,12 +4598,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -4613,154 +4613,154 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>事欣科</t>
+          <t>昇銳</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29.11</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>96.61</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>航太及國防工業75.60%、博奕及工業電腦24.40% (2023年)</t>
+          <t>數位影像錄放影機32.42%、倒車系統28.02%、攝影機26.37%、材料及其他11.48%、顯示器1.71% (2023年)</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>事欣科-電腦及週邊設備業-上市</t>
+          <t>昇銳-光電業-上櫃</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>183473960.0</t>
+          <t>5352.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>174.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>聯光通</t>
+          <t>泰偉</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -4790,134 +4790,134 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>215.67</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>112.76</t>
+          <t>52.03</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>839</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>系統工程及服務61.79%、光纖電纜及配合材料34.74%、其他3.22%、數據產品傳輸設備0.25% (2023年)</t>
+          <t>網路遊戲99.97%、其他0.03% (2023年)</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>聯光通-通信網路業-上櫃</t>
+          <t>泰偉-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>962748.0</t>
+          <t>-340.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>2597</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>70.28</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>99</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>158.5</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>華廣</t>
+          <t>潤弘</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -4942,104 +4942,104 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>31.43</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>26.58</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>32.55</t>
+          <t>28.23</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>39487</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>血糖檢測試片69.75%、其他18.19%、血糖檢測儀套件12.06% (2023年)</t>
+          <t>廠辦大樓42.19%、住宅26.22%、建材16.52%、公共工程9.82%、宗教4.64%、其他0.61% (2023年)</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>華廣-生技醫療業-上市</t>
+          <t>潤弘-建材營造-上市</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>35769724.0</t>
+          <t>56588261.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>34.55</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--遠期量推近期量推量大ShowTime</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>34.55</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -5084,94 +5084,94 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>聿新科</t>
+          <t>皇昌</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>28.23</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>35947</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>居家醫療檢測試紙59.22%、生醫保養品及代工32.79%、居家醫療檢測儀器7.88%、其他0.11% (2023年)</t>
+          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>聿新科-生技醫療業-上櫃</t>
+          <t>皇昌-建材營造-上市</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>20778.0</t>
+          <t>1514050315.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3710</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>18.6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>41.08</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--遠期量推近期量推量大ShowTime</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>18.6</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -5241,17 +5241,17 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>連展投控</t>
+          <t>新建</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -5261,134 +5261,134 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>28.23</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>其他38.97%、電腦產品32.74%、通訊產品28.29% (2023年)</t>
+          <t>土木工程62.51%、建築工程37.45%、其他0.04% (2023年)</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>連展投控-電子零組件業-上櫃</t>
+          <t>新建-建材營造-上市</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>197220.0</t>
+          <t>65457717.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>2496</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>89.8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>33.8</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>2025-01-22</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>637.0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>29.36</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>-11.0</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>637.0</t>
+          <t>89.8</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>貿聯-KY</t>
+          <t>卓越</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -5413,226 +5413,226 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>181.28</t>
+          <t>45.08</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>34.89</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>116819</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>工業用38.88%、車用25.41%、資訊科技與數據傳播20.22%、電器用14.59%、其他0.89% (2023年)</t>
+          <t>教育服務99.49%、其他0.51% (2023年)</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>貿聯-KY-其他電子業-上市</t>
+          <t>卓越-其他-上市</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2392127693.0</t>
+          <t>21241170.0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>2466</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>49.53</t>
+          <t>55.01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>88.0</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>冠西電</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推ShowTime</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>45.5</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>三一東林</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>13717</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>LED Driver45.01%、成車43.58%、其他11.40% (2023年)</t>
+          <t>裝飾燈53.97%、光電元件39.45%、節淨蒸汽4.52%、貿易及通路2.06% (2023年)</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>三一東林-電子零組件業-上櫃</t>
+          <t>冠西電-光電業-上市</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>57008.0</t>
+          <t>525053984.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>196.0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5642,67 +5642,67 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>77.32</t>
+          <t>59.06</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>196.0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -5712,12 +5712,12 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>微星</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -5727,79 +5727,79 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>62.18</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>61.65</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>8896</t>
+          <t>153341</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>電腦及周邊產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>微星-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2433411209.0</t>
+          <t>3372822307.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>2258</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>47.85</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>52.92</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5809,154 +5809,154 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-53.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>92</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>鴻華先進-創</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>--探底</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>亞帝歐</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>25.67</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>97.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>300.7</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>80884</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>照明燈具49.65%、連接線48.51%、塑膠射出1.25%、能源電力0.60% (2023年)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>亞帝歐-光電業-上櫃</t>
+          <t>鴻華先進-創-汽車工業-上市</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>1220.0</t>
+          <t>93812513.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>453.0</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>79.94</t>
+          <t>69.71</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -5966,22 +5966,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -5991,17 +5991,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6011,12 +6011,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>453.0</t>
+          <t>37.15</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -6026,119 +6026,119 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>昇達科</t>
+          <t>大成鋼</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>40.78</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>67.31</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>112.76</t>
+          <t>46.47</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>28930</t>
+          <t>82887</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>微波及毫米波49.15%、射頻產品32.07%、通訊網路工程服務18.79% (2023年)</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>昇達科-通信網路業-上櫃</t>
+          <t>大成鋼-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>7322770.0</t>
+          <t>3339220472.0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>29.01</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -6148,17 +6148,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>--ShowTime</t>
+          <t>--遠期量推近期量推量大</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -6168,12 +6168,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -6183,94 +6183,94 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>燁輝</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>15.78</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>46.47</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>30656</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>網路攝影機100.00% (2023年)</t>
+          <t>鍍鋅鋼捲47.67%、烤漆鋼捲22.58%、其他8.24%、線材6.84%、軋硬鋼捲6.33%、鋼管4.94%、買賣1.04%、冷軋鋼捲0.94%、鋼結構0.77%、天車0.33%、代工鋼捲0.25%、軋延鋼捲0.04%、酸洗鋼捲0.01% (2023年)</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>燁輝-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>15143.0</t>
+          <t>35748829.0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3284</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>357.5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>28.35</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6280,22 +6280,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -6305,17 +6305,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--遠期量推近期量推量大探底有撐</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -6325,12 +6325,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>357.5</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -6340,94 +6340,94 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>太普高</t>
+          <t>聚陽</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>13.66</t>
+          <t>54.56</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>42.42</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>21.07</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>183.9</t>
+          <t>32.11</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>85602</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>印刷版材67.70%、不動產代銷21.57%、其他10.73% (2023年)</t>
+          <t>成衣98.03%、布料1.97% (2023年)</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>太普高-其他-上櫃</t>
+          <t>聚陽-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>12153.0</t>
+          <t>723915456.0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>65.48</t>
+          <t>36.26</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6437,1849 +6437,122 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>36.5</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2024-12-19</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推ShowTime</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>68.9</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>欣銓</t>
+          <t>恆大</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>37.80</t>
+          <t>31.78</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>54.95</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>33773</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>晶圓測試73.30%、成品測試26.27%、其他0.43% (2023年)</t>
+          <t>紡結與複合不織布83.48%、加工品10.96%、其他3.20%、熔噴不織布1.92%、材料加工0.45% (2023年)</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>欣銓-半導體業-上櫃</t>
+          <t>恆大-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>2515998.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>3211</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>204.5</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>28.16</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>204.5</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>順達</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>68.32</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>23.59</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>11.13</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>31186</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>6053876.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>3163</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>169.5</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>54.33</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2024-12-23</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>169.5</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>波若威</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>33.20</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>37.75</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>112.76</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>13652</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>光纖連接產品(OIN Product)49.92%、光能量分合產品22.24%、光波長分合產品21.23%、光能量放大產品6.33%、其他0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>波若威-通信網路業-上櫃</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>7920315.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>3018</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>28.9</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>28.9</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>隆銘綠能</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>34.56</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>1129</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>機電系統整合工程70.22%、營建工程29.61%、商品銷售0.17% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>隆銘綠能-其他電子業-上市</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>3200224.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>3005</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>119.5</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2024-12-16</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>119.5</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>神基</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>36.80</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>14.85</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>17.29</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>68.69</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>73517</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>電子元器件52.18%、機構件38.99%、航太扣件8.83% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>神基-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>765320369.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2924</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>26.02</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>均線:無明顯趨勢</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2025-01-06</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>30.8</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>宏太-KY</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>居家生活</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>10.57</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>1603</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>嬰幼兒產品100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>宏太-KY-居家生活-上櫃</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>246.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2498</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>宏達電</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>26.37</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>40.14</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>49289</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>虛擬實境及5G,智慧型手機和100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>宏達電-通信網路業-上市</t>
-        </is>
-      </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>16618070150.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2466</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>57.66</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>70.0</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>冠西電</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>10.90</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>60.87</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>13717</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>裝飾燈53.97%、光電元件39.45%、節淨蒸汽4.52%、貿易及通路2.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>冠西電-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>377767767.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>437.5</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>14.94</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>437.5</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>台達電</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>84.15</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>43.2</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>31.19</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>1136425</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>電源及零組件63.68%、基礎設施23.28%、自動化業務13.02%、其他0.02% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>台達電-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>3564327251.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>129.5</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>39.19</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>129.5</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>IKKA-KY</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>61.48</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>30.4</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>20.56</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>141.64</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>4075</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>汽車類64.38%、衛浴家電類16.80%、其他15.15%、辦公設備3.67% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>IKKA-KY-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>680293811.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1736</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>189.5</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>均線:橫盤震盪</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>189.5</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>喬山</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>34.12</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>39.81</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>44.8</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>57493</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>喬山-運動休閒-上市</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>-4986928.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1598</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>31.45</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>78.9</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2024-12-30</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>31.45</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>岱宇</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>5257</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>電動跑步機52.33%、其他16.86%、橢圓機14.11%、健身車9.40%、家具7.30% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>岱宇-運動休閒-上市</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>44836511.0</t>
+          <t>530578055.0</t>
         </is>
       </c>
     </row>

--- a/Result/check1.xlsx
+++ b/Result/check1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE39"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,92 +593,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9935</t>
+          <t>9955</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>23.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>31.85</t>
+          <t>32.65</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>慶豐富</t>
+          <t>佳龍</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -703,104 +703,104 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15.72</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>窗簾73.28%、家居裝飾產品24.15%、塑膠製品2.57% (2023年)</t>
+          <t>黃金41.31%、金鹽38.91%、白金14.14%、其他3.26%、混合五金處理及銷貨0.92%、白銀0.85%、鈀金0.41%、廢資訊品清運及處理0.21% (2023年)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>慶豐富-居家生活-上市</t>
+          <t>佳龍-綠能環保-上市</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>70978752.0</t>
+          <t>190669342.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9919</t>
+          <t>8401</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>32.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>22.37</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -815,27 +815,27 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>--探底</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>32.35</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>康那香</t>
+          <t>白紗科</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -855,144 +855,144 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>183.9</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>衛生棉52.32%、濕巾21.93%、不織布及其他15.37%、紙尿褲10.37% (2023年)</t>
+          <t>印刷品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>康那香-其他-上市</t>
+          <t>白紗科-其他-上櫃</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>193420111.0</t>
+          <t>31010.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8937</t>
+          <t>8390</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>42.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>176.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>21.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-01-02</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>176.0</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>合騏</t>
+          <t>金益鼎</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1017,79 +1017,79 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>531.25</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>183.9</t>
+          <t>65.5</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15694</t>
+          <t>5902</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>多功能休閒車58.13%、其他車種及零件24.10%、摩托車16.12%、其他投資1.65% (2023年)</t>
+          <t>工業金屬48.26%、貴金屬材料33.90%、其他17.84% (2023年)</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>合騏-其他-上櫃</t>
+          <t>金益鼎-綠能環保-上櫃</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>319041.0</t>
+          <t>551278.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8482</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>203.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>409</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1124,32 +1124,32 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1159,84 +1159,84 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>商億-KY</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>居家生活</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>32.36</t>
+          <t>17.13</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>45.83</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>33.42</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>58.75</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10701</t>
+          <t>6220</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>室內家具90.84%、其他9.16% (2023年)</t>
+          <t>行動通訊裝置零組件96.86%、其他產品3.14% (2023年)</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>商億-KY-居家生活-上市</t>
+          <t>擎亞-電子通路業-上櫃</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-8068462.0</t>
+          <t>2365836.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8415</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>117.82</t>
+          <t>31.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1296,17 +1296,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1316,119 +1316,119 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>大國鋼</t>
+          <t>達運光電</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>24.22</t>
+          <t>15.72</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>18.31</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>35226</t>
+          <t>10849</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>螺絲及螺帽86.40%、其他10.56%、鋁製品3.04% (2023年)</t>
+          <t>寬頻網路設備95.20%、智慧聯網(AIOT)4.10%、其他0.70% (2023年)</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>大國鋼-鋼鐵工業-上櫃</t>
+          <t>達運光電-通信網路業-上市</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>128700.0</t>
+          <t>27561006.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8390</t>
+          <t>7714</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>90.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>37.27</t>
+          <t>68.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>90.4</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>金益鼎</t>
+          <t>創泓科技</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>綠能環保</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1488,94 +1488,94 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>32.74</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>21.58</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>65.5</t>
+          <t>29.36</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>5902</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>工業金屬48.26%、貴金屬材料33.90%、其他17.84% (2023年)</t>
+          <t>網路資訊安全硬體銷售37.79%、資安訂閱服務32.60%、網路資訊安全軟體銷售22.95%、資安人力技術服務及雲端6.66% (2023年)</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>金益鼎-綠能環保-上櫃</t>
+          <t>創泓科技-數位雲端-上櫃</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>265436.0</t>
+          <t>26067.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>116.5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>48.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>116.5</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1630,94 +1630,94 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>尚茂</t>
+          <t>富威電力</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>92</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>15.86</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>59.87</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>6888</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>銅箔基板(CCL)93.71%、黏合膠片6.29% (2023年)</t>
+          <t>電力68.45%、工程25.68%、服務收入5.87% (2023年)</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>尚茂-電子零組件業-上櫃</t>
+          <t>富威電力-綠能環保-上市</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>393.0</t>
+          <t>391167378.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7722</t>
+          <t>6914</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>35.61</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1727,72 +1727,72 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大探底有撐</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>--探底有撐</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>793.0</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>LINEPAY</t>
+          <t>阜爾運通</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>數位雲端</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1802,236 +1802,236 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>98.64</t>
+          <t>50.29</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>17.93</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>72.35</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>50524</t>
+          <t>7980</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>手續費80.65%、金融推廣合作11.55%、其他4.12%、系統管理服務3.69% (2023年)</t>
+          <t>停車場收費及管理服務90.89%、停車場建置4.48%、其他2.66%、設備銷售1.96% (2023年)</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>LINEPAY-數位雲端-上市</t>
+          <t>阜爾運通-其他-上市</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1500865648.0</t>
+          <t>65051826.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6994</t>
+          <t>6761</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>93.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>44.87</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>--探底</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>93.6</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>富威電力</t>
+          <t>穩得</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>綠能環保</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>15.86</t>
+          <t>44.31</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>28.47</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>2830</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>電力68.45%、工程25.68%、服務收入5.87% (2023年)</t>
+          <t>元件-代理50.19%、元件-自有40.00%、測試認證9.81% (2023年)</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>富威電力-綠能環保-上市</t>
+          <t>穩得-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>264136027.0</t>
+          <t>23012.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>6752</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63.48</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2041,22 +2041,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>275</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2071,27 +2071,27 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2101,119 +2101,119 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>叡揚</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>21.57</t>
+          <t>32.38</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.47</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>82854</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>邏輯產品62.00%、記憶體(仟片)30.94%、記憶體(千顆)7.06% (2023年)</t>
+          <t>技術服務91.81%、商品銷售8.19% (2023年)</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>力積電-半導體業-上市</t>
+          <t>叡揚-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>5861763382.0</t>
+          <t>485584.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6752</t>
+          <t>6697</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18.37</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>44</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2228,27 +2228,27 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>叡揚</t>
+          <t>東捷資訊</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2273,22 +2273,22 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>32.38</t>
+          <t>21.24</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>20.47</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2298,44 +2298,44 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>技術服務91.81%、商品銷售8.19% (2023年)</t>
+          <t>資訊委外服務65.42%、郵務資料整合22.56%、客戶關係管理12.02% (2023年)</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>叡揚-資訊服務業-上櫃</t>
+          <t>東捷資訊-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>140405.0</t>
+          <t>12913.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6720</t>
+          <t>6689</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>169.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2345,201 +2345,201 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-75.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>169.0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>久昌</t>
+          <t>伊雲谷</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>184.5</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>42.98</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>49.23</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>29.21</t>
+          <t>42.46</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>36.07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>7854</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Hall IC(IC)87.83%、Hall IC(晶圓)8.22%、PowerIC(IC)1.88%、Mosfet IC1.83%、Power IC(晶圓)0.16%、馬達驅動IC0.08% (2023年)</t>
+          <t>雲端服務98.85%、存儲類產品1.15% (2023年)</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>久昌-半導體業-上櫃</t>
+          <t>伊雲谷-數位雲端-上市</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-276854.0</t>
+          <t>-16735872.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6657</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>54.1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>40.54</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>均線:上漲趨勢</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-52.0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>--遠期量推近期量推量大探底有撐</t>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>166.0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>華安</t>
+          <t>鼎基</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2587,79 +2587,79 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>53.45</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.59</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>32.55</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>4637</t>
+          <t>11074</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>試劑銷售53.27%、勞務46.73% (2023年)</t>
+          <t>薄膜92.17%、密封件4.47%、管帶3.23%、其他0.14% (2023年)</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>華安-生技醫療業-上市</t>
+          <t>鼎基-其他-上市</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>65168662.0</t>
+          <t>185448457.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>165.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2669,42 +2669,42 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>128</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>165.5</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2729,119 +2729,119 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>鼎基</t>
+          <t>宏觀</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>53.45</t>
+          <t>47.34</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15.59</t>
+          <t>64.71</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11074</t>
+          <t>4776</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>薄膜92.17%、密封件4.47%、管帶3.23%、其他0.14% (2023年)</t>
+          <t>射頻晶片91.93%、委託設計服務8.07% (2023年)</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>鼎基-其他-上市</t>
+          <t>宏觀-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>136763475.0</t>
+          <t>93381.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>6290</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推探底有撐ShowTime</t>
+          <t>--遠期量推近期量推</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>--探底有撐</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2886,12 +2886,12 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>訊達電腦</t>
+          <t>良維</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2901,79 +2901,79 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>39.19</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>30.95</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>12382</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>個人電腦與工作站22.75%、伺服器20.14%、零件, 耗材, 技術服務及其他19.66%、軟體產品12.49%、網路產品9.67%、伺服器週邊選件9.64%、個人電腦及工作站周邊選件3.25%、顯示器2.10%、印表機0.30% (2023年)</t>
+          <t>電源傳輸線組82.40%、訊號傳輸線組8.82%、電源, 訊號傳輸及車用線材6.68%、充電器轉接頭與一體式充電器2.07%、其他0.03% (2023年)</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>訊達電腦-資訊服務業-上櫃</t>
+          <t>良維-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>164215.0</t>
+          <t>1216191.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6112</t>
+          <t>6285</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>148.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>79.85</t>
+          <t>41.75</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2983,57 +2983,57 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>148.5</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3043,12 +3043,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>邁達特</t>
+          <t>啟碁</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -3058,104 +3058,104 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>63.38</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>22.8</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>34.15</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>24.59</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>6852</t>
+          <t>68898</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>數據運算及應用60.03%、資通訊基礎架構22.11%、雲端應用,軟體及服務11.84%、數位化應用整合4.43%、其他產品1.60% (2023年)</t>
+          <t>無線通訊產品96.85%、其他3.15% (2023年)</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>邁達特-資訊服務業-上市</t>
+          <t>啟碁-通信網路業-上市</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>994655175.0</t>
+          <t>4427663499.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5481</t>
+          <t>6245</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>32.85</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>20.43</t>
+          <t>44.36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>168</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>111</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>32.85</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>新華</t>
+          <t>立端</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3215,104 +3215,104 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>40.01</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>183.9</t>
+          <t>112.76</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>14225</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>教材38.28%、權利金收入27.87%、租賃23.49%、教育服務5.31%、其他5.05% (2023年)</t>
+          <t>網路通訊設備(NC)91.85%、IEC7.62%、其他, 原材料及其他商品買賣0.52% (2023年)</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>新華-其他-上櫃</t>
+          <t>立端-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>119068.0</t>
+          <t>1333971.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5474</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>192.0</t>
+          <t>398.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>27.18</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>192.0</t>
+          <t>398.5</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>聰泰</t>
+          <t>系微</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -3372,79 +3372,79 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>46.91</t>
+          <t>23.42</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>60.57</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>7385</t>
+          <t>18306</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>電腦多媒體周邊視訊轉換器及99.84%、其他電腦週邊設備0.16% (2023年)</t>
+          <t>基本輸出入軟體(Insyde H2O)91.26%、基板管理控制器(BMC)韌體8.74% (2023年)</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>聰泰-電腦及週邊設備業-上櫃</t>
+          <t>系微-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>1229491.0</t>
+          <t>-198013.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>42.86</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3454,22 +3454,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推ShowTime</t>
+          <t>--遠期量推近期量推量大ShowTime</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>79.3</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3514,94 +3514,94 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>世紀</t>
+          <t>凌華</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>73.11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11069</t>
+          <t>16399</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>裝修工程75.24%、餐飲服務13.67%、系統模組8.10%、建材3.00% (2023年)</t>
+          <t>模組化電腦事業處29.15%、邊緣運算平台事業處16.29%、顯示運算事業處15.85%、客製化強固電腦12.85%、IOT策略解決方案與技術部門12.69%、網路通訊及車載業務10.25%、其他2.92% (2023年)</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>世紀-半導體業-上櫃</t>
+          <t>凌華-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1257076.0</t>
+          <t>160864714.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>60.18</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3611,57 +3611,57 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>711</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>30.55</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>勤凱科技</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3686,124 +3686,124 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>29.11</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>3177</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>導電漿料99.65%、其他0.35% (2023年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>勤凱科技-其他電子業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>52269.0</t>
+          <t>135521.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推</t>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>智擎</t>
+          <t>訊達電腦</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -3843,104 +3843,104 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>30.95</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>權利金收入63.72%、商品銷售36.28% (2023年)</t>
+          <t>個人電腦與工作站22.75%、伺服器20.14%、零件, 耗材, 技術服務及其他19.66%、軟體產品12.49%、網路產品9.67%、伺服器週邊選件9.64%、個人電腦及工作站周邊選件3.25%、顯示器2.10%、印表機0.30% (2023年)</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>智擎-生技醫療業-上櫃</t>
+          <t>訊達電腦-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>279720.0</t>
+          <t>470920.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>6112</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>161.94</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>490</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3950,32 +3950,32 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推量大ShowTime</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3985,119 +3985,119 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>樂威科-KY</t>
+          <t>邁達特</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>22.8</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>183.9</t>
+          <t>24.59</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>6852</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>精品100.00% (2023年)</t>
+          <t>數據運算及應用60.03%、資通訊基礎架構22.11%、雲端應用,軟體及服務11.84%、數位化應用整合4.43%、其他產品1.60% (2023年)</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>樂威科-KY-其他-上櫃</t>
+          <t>邁達特-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>1095.0</t>
+          <t>3051550879.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>5474</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>185.0</t>
+          <t>201.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>33.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>185.0</t>
+          <t>201.5</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -4142,94 +4142,94 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>聰泰</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>69.04</t>
+          <t>46.91</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>55.21</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>40.14</t>
+          <t>27.14</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>39554</t>
+          <t>7385</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>電腦多媒體周邊視訊轉換器及99.84%、其他電腦週邊設備0.16% (2023年)</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>聰泰-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>371657200.0</t>
+          <t>1474070.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3454</t>
+          <t>5388</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>132.5</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17.51</t>
+          <t>43.97</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4239,57 +4239,57 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>132.5</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -4299,12 +4299,12 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>晶睿</t>
+          <t>中磊</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4314,79 +4314,79 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>38.72</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>45.19</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>53.33</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11081</t>
+          <t>37806</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>網路攝影機85.22%、其他8.39%、網路影音錄影機6.39% (2023年)</t>
+          <t>寬頻終端設備64.17%、商用網通設備(ENT)23.61%、網路基礎建設及物聯網9.41%、其他2.81% (2023年)</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>晶睿-光電業-上市</t>
+          <t>中磊-通信網路業-上市</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>-235046914.0</t>
+          <t>1589387602.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3373</t>
+          <t>5314</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>51.23</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4396,22 +4396,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>-25.0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4426,27 +4426,27 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>860.0</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>熱映</t>
+          <t>世紀</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -4471,79 +4471,79 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73.11</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>11069</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>紅外線精密溫度儀58.37%、體溫測量產品(耳溫槍,額溫槍31.31%、紅外線精密氣體監測儀10.31%、其他0.01% (2023年)</t>
+          <t>裝修工程75.24%、餐飲服務13.67%、系統模組8.10%、建材3.00% (2023年)</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>熱映-其他電子業-上櫃</t>
+          <t>世紀-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>104468.0</t>
+          <t>3227909.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>65.27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>815</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推探底有撐</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -4613,12 +4613,12 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>寶島科</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -4628,139 +4628,139 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>55.15</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>16.86</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>29.11</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>6667</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>數位影像錄放影機32.42%、倒車系統28.02%、攝影機26.37%、材料及其他11.48%、顯示器1.71% (2023年)</t>
+          <t>眼鏡100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>寶島科-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>5352.0</t>
+          <t>132068.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3064</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32.2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>14.9</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>均線:無明顯趨勢</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>52.0</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--追高</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>泰偉</t>
+          <t>凱衛</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -4785,79 +4785,79 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>215.67</t>
+          <t>27.01</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>52.03</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>887</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>網路遊戲99.97%、其他0.03% (2023年)</t>
+          <t>軟硬體系統整合40.20%、勞務及維修34.08%、授權(租用及軟體)25.72% (2023年)</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>泰偉-文化創意業-上櫃</t>
+          <t>凱衛-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>-340.0</t>
+          <t>36269.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>32.97</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4867,57 +4867,57 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--遠期量推近期量推量大探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>158.5</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>潤弘</t>
+          <t>致伸</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -4942,104 +4942,104 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>31.43</t>
+          <t>38.96</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>34.35</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>39487</t>
+          <t>38005</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>廠辦大樓42.19%、住宅26.22%、建材16.52%、公共工程9.82%、宗教4.64%、其他0.61% (2023年)</t>
+          <t>非電腦週邊產品61.21%、電腦周邊產品36.86%、服務收入1.93% (2023年)</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>潤弘-建材營造-上市</t>
+          <t>致伸-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>56588261.0</t>
+          <t>522169033.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>45.76</t>
+          <t>21.62</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:無明顯趨勢</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -5084,94 +5084,94 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>皇昌</t>
+          <t>樂威科-KY</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16.77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>183.9</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>35947</t>
+          <t>438</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
+          <t>精品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>皇昌-建材營造-上市</t>
+          <t>樂威科-KY-其他-上櫃</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1514050315.0</t>
+          <t>3895.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>41.08</t>
+          <t>47.46</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>115.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>115</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5206,17 +5206,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>25.35</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -5241,12 +5241,12 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>新建</t>
+          <t>國光生</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -5261,74 +5261,74 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>32.55</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>9557</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>土木工程62.51%、建築工程37.45%、其他0.04% (2023年)</t>
+          <t>流行感冒疫苗58.23%、非流感疫苗系列41.77% (2023年)</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>新建-建材營造-上市</t>
+          <t>國光生-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>65457717.0</t>
+          <t>1228230773.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.8</t>
+          <t>3245.0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>48.42</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5338,32 +5338,32 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>89.8</t>
+          <t>3245.0</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>卓越</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -5413,69 +5413,69 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>45.08</t>
+          <t>441.29</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>185.58</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>43.64</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>245026</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>教育服務99.49%、其他0.51% (2023年)</t>
+          <t>ASIC及晶圓產品78.02%、委託設計(NRE)21.81%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>卓越-其他-上市</t>
+          <t>世芯-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>21241170.0</t>
+          <t>10496865430.0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>55.01</t>
+          <t>43.22</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5495,57 +5495,57 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>147.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>147</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>--遠期量推</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>--追高</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>冠西電</t>
+          <t>達邁</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -5570,124 +5570,124 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>22.54</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>60.87</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13717</t>
+          <t>8911</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>裝飾燈53.97%、光電元件39.45%、節淨蒸汽4.52%、貿易及通路2.06% (2023年)</t>
+          <t>聚醯亞胺薄膜97.25%、其他2.75% (2023年)</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>冠西電-光電業-上市</t>
+          <t>達邁-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>525053984.0</t>
+          <t>4186661469.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>196.0</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>59.06</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>197</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大ShowTime</t>
+          <t>--遠期量推近期量推探底有撐ShowTime</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底有撐</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -5697,12 +5697,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>196.0</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -5712,119 +5712,119 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>微星</t>
+          <t>昱捷</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>62.18</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>61.65</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>170.0</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>68.69</t>
+          <t>58.75</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>153341</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>電腦及周邊產品100.00% (2023年)</t>
+          <t>液晶驅動IC47.29%、分散式元件40.17%、微處理器5.60%、其他5.05%、金屬表面處理1.90% (2023年)</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>微星-電腦及週邊設備業-上市</t>
+          <t>昱捷-電子通路業-上櫃</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>3372822307.0</t>
+          <t>9583.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>47.85</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>52.92</t>
+          <t>108.28</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>均線:橫盤震盪</t>
+          <t>均線:上漲趨勢</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>636</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -5834,32 +5834,32 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>--遠期量推</t>
+          <t>--ShowTime</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>--追高</t>
+          <t>--探底</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>47.85</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -5869,17 +5869,17 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>鴻華先進-創</t>
+          <t>基亞</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -5904,206 +5904,206 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>300.7</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>80884</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>新藥及疫苗開發33.62%、學名藥32.51%、醫美產品28.73%、分子診斷4.87%、細胞治療0.26% (2023年)</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>鴻華先進-創-汽車工業-上市</t>
+          <t>基亞-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>93812513.0</t>
+          <t>95453.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>69.71</t>
+          <t>31.85</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推ShowTime</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>大綜</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>29.94</t>
+          <t>33.10</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>35.74</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>22.95</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>46.47</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>82887</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>電腦週邊及其他35.31%、伺服器主機27.29%、個人電腦及筆記型電腦22.53%、企業應用軟體8.95%、服務及顧問5.92% (2023年)</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>大綜-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>3339220472.0</t>
+          <t>333723.0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>29.01</t>
+          <t>64.73</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6123,22 +6123,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>168</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>98</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>--遠期量推近期量推量大</t>
+          <t>--遠期量推近期量推ShowTime</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -6168,12 +6168,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -6183,154 +6183,154 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>燁輝</t>
+          <t>僑威</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>14.56</t>
+          <t>28.86</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.61</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>46.47</t>
+          <t>59.87</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>30656</t>
+          <t>17782</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲47.67%、烤漆鋼捲22.58%、其他8.24%、線材6.84%、軋硬鋼捲6.33%、鋼管4.94%、買賣1.04%、冷軋鋼捲0.94%、鋼結構0.77%、天車0.33%、代工鋼捲0.25%、軋延鋼捲0.04%、酸洗鋼捲0.01% (2023年)</t>
+          <t>Desk PC Power84.72%、其他類電源供應器14.65%、其他0.63% (2023年)</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>燁輝-鋼鐵工業-上市</t>
+          <t>僑威-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>35748829.0</t>
+          <t>5383186.0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>357.5</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>28.35</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>均線:上漲趨勢</t>
+          <t>均線:橫盤震盪</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>--遠期量推近期量推量大探底有撐</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>--探底有撐</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>357.5</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -6340,12 +6340,12 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>聚陽</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -6355,79 +6355,79 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>54.56</t>
+          <t>32.86</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>42.42</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>21.07</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>32.11</t>
+          <t>60.87</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>85602</t>
+          <t>11253</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>成衣98.03%、布料1.97% (2023年)</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>聚陽-紡織纖維-上市</t>
+          <t>華晶科-光電業-上市</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>723915456.0</t>
+          <t>519845970.0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>36.26</t>
+          <t>14.59</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6437,122 +6437,1221 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>三商壽</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>37047</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>簽單保費62.98%、利息收入29.75%、分離帳戶保險商品12.60%、外匯價格變動準備淨變動3.34%、手續費2.41%、其他1.02%、投資性不動產0.30%、再保佣金0.08%、預期信用減損損失及迴轉利益0.07%、其他營業收入0.05%、權益法投資收益-關聯和合營公0.03%、透過其他綜合損益按公允價值0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>三商壽-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>379624716.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2755</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>110.5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>110.5</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>揚秦</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>觀光事業</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>商品銷售73.70%、門市餐飲18.30%、專案收入6.84%、其他1.16% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>揚秦-觀光事業-上櫃</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>6139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>--遠期量推</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>--追高</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>36.5</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>恆大</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>凌群</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>31.78</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>5670</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>電腦週邊設備及系統整合76.89%、電腦設備維修22.83%、電腦租賃0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>凌群-資訊服務業-上市</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>1823623560.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>54.95</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>2955</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>紡結與複合不織布83.48%、加工品10.96%、其他3.20%、熔噴不織布1.92%、材料加工0.45% (2023年)</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>恆大-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>530578055.0</t>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>27.2</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>三商電</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>系統整合服務40.98%、維修及保養服務36.16%、金融自動化服務機器22.87% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>三商電-資訊服務業-上市</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>204579059.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>569.0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>569.0</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>瑞昱</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>59.96</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>277972</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>積體電路(IC)晶片99.64%、其他0.36% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>瑞昱-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>3206821676.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-19.0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>運錩</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>15.76</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2754</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>不�袗�捲板99.98%、其他0.02% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>運錩-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>1651135.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2049</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大ShowTime</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>上銀</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>52.51</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>103661</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>線性滑軌64.46%、滾珠螺桿19.05%、其他16.49% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>上銀-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>5405426814.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>89.3</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>--遠期量推近期量推量大</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>--追高</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>大成鋼</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>26.6</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>82887</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>大成鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>5247739195.0</t>
         </is>
       </c>
     </row>
